--- a/data/trans_dic/P56$pareja-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P56$pareja-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.5970873046961439</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1803662680784037</v>
+        <v>0.1803662680784038</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1251771847076077</v>
@@ -685,7 +685,7 @@
         <v>0.1748076584482195</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1231918937402999</v>
+        <v>0.1231918937402998</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.197651239384075</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0730541803718176</v>
+        <v>0.08299634229267173</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3003150465050661</v>
+        <v>0.2954819175418127</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3874405592717891</v>
+        <v>0.3856723259437791</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08475177343511089</v>
+        <v>0.09080779096903668</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1617636217325326</v>
+        <v>0.1529473712239211</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.07309777623536683</v>
+        <v>0.07555529106801505</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07634913264597189</v>
+        <v>0.07931581511932646</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09232919217163621</v>
+        <v>0.0892460118143496</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2194441920054353</v>
+        <v>0.2238005963984819</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2117526907938338</v>
+        <v>0.1964443766299185</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09514089710911774</v>
+        <v>0.09375803600109403</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5765059670226347</v>
+        <v>0.6452779953340264</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9003396082250559</v>
+        <v>0.9003856120158077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7987953891492843</v>
+        <v>0.7838610120816405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3248134230143884</v>
+        <v>0.3339741776528768</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3378496619304917</v>
+        <v>0.3925475019328489</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4379685947690581</v>
+        <v>0.4247933455994944</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3198257252930828</v>
+        <v>0.3203445943991976</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1873471326374066</v>
+        <v>0.1903983474191694</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3982241684519638</v>
+        <v>0.3681501629183686</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4784896758923354</v>
+        <v>0.4740442295552921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4441780017783893</v>
+        <v>0.4330906888120087</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1979008778324924</v>
+        <v>0.1928793291497325</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.15260876207662</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2196568172567103</v>
+        <v>0.2196568172567104</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3361959411097688</v>
@@ -833,7 +833,7 @@
         <v>0.1845033514815304</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2351149959435261</v>
+        <v>0.2351149959435262</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3228188220159758</v>
+        <v>0.3200429523226823</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1687444805887188</v>
+        <v>0.1682410955879129</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09006897394818437</v>
+        <v>0.08931577712108825</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.151499683672142</v>
+        <v>0.1574291029639718</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.07507719881439637</v>
+        <v>0.07579429839327986</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03403128901367115</v>
+        <v>0.04739317644445329</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05038344485381987</v>
+        <v>0.04952956479546599</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.154105748038074</v>
+        <v>0.1496674222106679</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2090201573112725</v>
+        <v>0.1994465778853995</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1005826823347287</v>
+        <v>0.1017508023574318</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09150311984246219</v>
+        <v>0.08686042491662999</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1801858397363034</v>
+        <v>0.172875061847364</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7973832875353679</v>
+        <v>0.8570110756977953</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5483872467794738</v>
+        <v>0.5293354745476018</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5077830498323297</v>
+        <v>0.4667976983993156</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4279405863761662</v>
+        <v>0.4356538941083443</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4158572182104109</v>
+        <v>0.3912700775844758</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1863444240843714</v>
+        <v>0.1997687529843668</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3457421132251591</v>
+        <v>0.3252142323154771</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2915390441604164</v>
+        <v>0.3013913505260303</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5013880683287029</v>
+        <v>0.5039196464784167</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2741688314370701</v>
+        <v>0.2661793529492361</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3332755495506856</v>
+        <v>0.3425645878835613</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3137242608699162</v>
+        <v>0.3051395905788</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.4716253196773119</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.513067092430053</v>
+        <v>0.5130670924300529</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.08328692809892344</v>
@@ -969,7 +969,7 @@
         <v>0.2600464012533236</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2514215094844324</v>
+        <v>0.2514215094844323</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.109292532381123</v>
+        <v>0.106696214933751</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1617587491336569</v>
+        <v>0.169107405236489</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2412681635587044</v>
+        <v>0.2260728494454715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3285752454168681</v>
+        <v>0.3211618220115127</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04896251054952252</v>
+        <v>0.0485593674868381</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05798170014302517</v>
+        <v>0.05724814613512632</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06419782311195266</v>
+        <v>0.06310917967096637</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06134955848534504</v>
+        <v>0.06162234078254776</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1148287798469539</v>
+        <v>0.1140666266496509</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1527544041939395</v>
+        <v>0.1492520944186134</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1770040132334006</v>
+        <v>0.1668243970929005</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7592869824863668</v>
+        <v>0.7627312168035077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7837544838406345</v>
+        <v>0.7756228862111429</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7172575891067677</v>
+        <v>0.7079941357123223</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6949625612878052</v>
+        <v>0.692333860111669</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2768117998558779</v>
+        <v>0.2726278697336522</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2606882258784479</v>
+        <v>0.255556416881027</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3293070076570478</v>
+        <v>0.3091979671363599</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2155811764189248</v>
+        <v>0.2109280463440567</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3426064056839608</v>
+        <v>0.3566979945751591</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3530062163815789</v>
+        <v>0.3562473212138949</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4132174373095409</v>
+        <v>0.4084933312306744</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3479445731163973</v>
+        <v>0.3424411977892342</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.5891594722207053</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.4788910087828356</v>
+        <v>0.4788910087828355</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05667111023858577</v>
@@ -1105,7 +1105,7 @@
         <v>0.2089485359040789</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2221941354051199</v>
+        <v>0.2221941354051198</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1850984451510094</v>
+        <v>0.1283526610558335</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2209916229346431</v>
+        <v>0.2484924479578907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3558257594388659</v>
+        <v>0.3220973568600184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3450184627896357</v>
+        <v>0.3507355566877999</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03951738714898229</v>
+        <v>0.03852524773979264</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03445526386014147</v>
+        <v>0.03041531082192648</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0811661782319756</v>
+        <v>0.08166140488046403</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07106940648810944</v>
+        <v>0.06945382364795229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1126567771243334</v>
+        <v>0.1143497417648059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1235117916757079</v>
+        <v>0.1172434549733549</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.167034937158945</v>
+        <v>0.1696194262228994</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6270261232980927</v>
+        <v>0.6286566165002121</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7119659372515358</v>
+        <v>0.7302763906637111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8324817897750378</v>
+        <v>0.7927736999366278</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6154816734089883</v>
+        <v>0.6288715221276022</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1989028384459543</v>
+        <v>0.1752368234099841</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2261387618235167</v>
+        <v>0.2029680196493951</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2344035364209573</v>
+        <v>0.2288440004441354</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1877852911102954</v>
+        <v>0.1851352803154668</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2626415716807958</v>
+        <v>0.2657533771668862</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3291145155548332</v>
+        <v>0.321330220480867</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3348555312111134</v>
+        <v>0.32555812266506</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2886704493088244</v>
+        <v>0.2874519641477938</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2882034640851892</v>
+        <v>0.2940285033285617</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09974279094295731</v>
+        <v>0.09993859203634255</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1212592061843816</v>
+        <v>0.1218513620123078</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1741814130662922</v>
+        <v>0.166558726707617</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1782016271123139</v>
+        <v>0.179118258023532</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4421319111288348</v>
+        <v>0.441398832475243</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2026236624223709</v>
+        <v>0.2020823207788786</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1866698345938961</v>
+        <v>0.1867254620843308</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2804878023118416</v>
+        <v>0.276216665746826</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.242791409894557</v>
+        <v>0.2454800468021189</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>956</v>
+        <v>1087</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3180</v>
+        <v>3129</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7351</v>
+        <v>7317</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2211</v>
+        <v>2369</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7459</v>
+        <v>7053</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2911</v>
+        <v>3009</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5024</v>
+        <v>5219</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>2722</v>
+        <v>2631</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>12443</v>
+        <v>12690</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>12449</v>
+        <v>11549</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>8742</v>
+        <v>8615</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>7547</v>
+        <v>8447</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>9533</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15156</v>
+        <v>14872</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8473</v>
+        <v>8712</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5537</v>
+        <v>6433</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20196</v>
+        <v>19588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12735</v>
+        <v>12756</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>12328</v>
+        <v>12529</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>11739</v>
+        <v>10853</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>27131</v>
+        <v>26879</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26114</v>
+        <v>25462</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>18185</v>
+        <v>17724</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4832</v>
+        <v>4790</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5467</v>
+        <v>5451</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1756</v>
+        <v>1742</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3977</v>
+        <v>4133</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2055</v>
+        <v>2074</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2235</v>
+        <v>3112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2069</v>
+        <v>2034</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11410</v>
+        <v>11081</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8849</v>
+        <v>8444</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9863</v>
+        <v>9978</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>5542</v>
+        <v>5261</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18071</v>
+        <v>17338</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11934</v>
+        <v>12827</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17766</v>
+        <v>17149</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9901</v>
+        <v>9102</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>11235</v>
+        <v>11437</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>11382</v>
+        <v>10709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>12236</v>
+        <v>13118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14198</v>
+        <v>13355</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>21585</v>
+        <v>22314</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>21228</v>
+        <v>21335</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>26885</v>
+        <v>26102</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20185</v>
+        <v>20747</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>31463</v>
+        <v>30602</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>760</v>
+        <v>742</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2261</v>
+        <v>2363</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4241</v>
+        <v>3974</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7598</v>
+        <v>7426</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2066</v>
+        <v>2049</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>2032</v>
+        <v>2006</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3062</v>
+        <v>3010</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1509</v>
+        <v>1516</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>6450</v>
+        <v>6407</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8039</v>
+        <v>7855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>12534</v>
+        <v>11813</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5281</v>
+        <v>5305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10953</v>
+        <v>10839</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12609</v>
+        <v>12447</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>16070</v>
+        <v>16009</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4885</v>
+        <v>4811</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11000</v>
+        <v>10784</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11542</v>
+        <v>10837</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>10281</v>
+        <v>10059</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>8428</v>
+        <v>8775</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>19829</v>
+        <v>20011</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>21747</v>
+        <v>21498</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>24639</v>
+        <v>24249</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2456</v>
+        <v>1703</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4761</v>
+        <v>5354</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5709</v>
+        <v>5168</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>11425</v>
+        <v>11614</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2026</v>
+        <v>1975</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1925</v>
+        <v>1699</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>7135</v>
+        <v>7178</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3227</v>
+        <v>3154</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>8203</v>
+        <v>8327</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>8880</v>
+        <v>8430</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>20213</v>
+        <v>20526</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>8319</v>
+        <v>8340</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15339</v>
+        <v>15734</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13357</v>
+        <v>12720</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>20381</v>
+        <v>20824</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6393</v>
+        <v>5632</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11595</v>
+        <v>10407</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13093</v>
+        <v>12782</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16506</v>
+        <v>16273</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>11926</v>
+        <v>12067</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>23965</v>
+        <v>23398</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24076</v>
+        <v>23408</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34933</v>
+        <v>34785</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>31292</v>
+        <v>31924</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>20472</v>
+        <v>20512</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>33398</v>
+        <v>33561</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49424</v>
+        <v>47261</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>68430</v>
+        <v>68782</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48005</v>
+        <v>47925</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41587</v>
+        <v>41476</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>51414</v>
+        <v>51430</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>79588</v>
+        <v>78376</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>93233</v>
+        <v>94266</v>
       </c>
     </row>
     <row r="24">
